--- a/medicine/Enfance/Natalie_Babbitt/Natalie_Babbitt.xlsx
+++ b/medicine/Enfance/Natalie_Babbitt/Natalie_Babbitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Natalie Babbitt, née Natalie Zane Moore[1] le 28 juillet 1932 à Dayton (Ohio) et morte le 31 octobre 2016 à Hamden (Connecticut)[2], est une illustratrice et auteure de littérature jeunesse américaine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Natalie Babbitt, née Natalie Zane Moore le 28 juillet 1932 à Dayton (Ohio) et morte le 31 octobre 2016 à Hamden (Connecticut), est une illustratrice et auteure de littérature jeunesse américaine.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est l'épouse de Samuel Fisher Babbitt[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est l'épouse de Samuel Fisher Babbitt.
 </t>
         </is>
       </c>
@@ -544,13 +558,16 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans jeunesse
-Le Plus délicieux des délices (The Search for Delicious, 1969), Flammarion Castor Poche, 1986
+          <t>Romans jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Plus délicieux des délices (The Search for Delicious, 1969), Flammarion Castor Poche, 1986
  Les Yeux de l'Amaryllis  (The Eyes of the Amaryllis, 1977), traduit de l'américain par Claire Devarrieux, Gallimard, Page Blanche (collection), 1987
 La Source enchantée (Tuck Everlasting, 1977), Castor Poche, 1987
-Le Mugigruff : la bête du Mont Grommelon (Knee-knock rise, 1970), trad. de l'anglais (États-Unis) par Rose-Marie Vassallo, ill. de Natalie Babbitt, Flammarion, 1993
-Recueil de nouvelles
-Dix histoires de Diable (The Devil's Storybook, 1974), Castor Poche, 1993</t>
+Le Mugigruff : la bête du Mont Grommelon (Knee-knock rise, 1970), trad. de l'anglais (États-Unis) par Rose-Marie Vassallo, ill. de Natalie Babbitt, Flammarion, 1993</t>
         </is>
       </c>
     </row>
@@ -575,15 +592,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dix histoires de Diable (The Devil's Storybook, 1974), Castor Poche, 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Natalie_Babbitt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Natalie_Babbitt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1971 : Finaliste Médaille Newbery pour Knee-Knock Rise (Le Mugigruff : la bête du Mont Grommelon)
-1978 : (international) « Honor List »[3], de l' IBBY, catégorie Auteur, pour Tuck Everlasting (La Source enchantée)
-1982 : Sélection Prix Hans Christian Andersen[4], catégorie Écriture
-1988 : Prix Sorcières[5] catégorie Roman, pour Les Yeux de l'Amaryllis  (The eyes of Amaryllis</t>
+1978 : (international) « Honor List », de l' IBBY, catégorie Auteur, pour Tuck Everlasting (La Source enchantée)
+1982 : Sélection Prix Hans Christian Andersen, catégorie Écriture
+1988 : Prix Sorcières catégorie Roman, pour Les Yeux de l'Amaryllis  (The eyes of Amaryllis</t>
         </is>
       </c>
     </row>
